--- a/result/problem_1/results-sumtime.xlsx
+++ b/result/problem_1/results-sumtime.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dmlf</t>
+          <t>dmsf</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlf</t>
+          <t>msf</t>
         </is>
       </c>
       <c r="C5" t="n">
